--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/20/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.86570000000001</v>
+        <v>-12.51290000000001</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -508,7 +508,7 @@
         <v>-11.8</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.368900000000004</v>
+        <v>-7.447500000000007</v>
       </c>
     </row>
     <row r="6">
@@ -544,13 +544,13 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>5.064699999999998</v>
+        <v>5.583599999999997</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.994300000000009</v>
+        <v>-8.041300000000005</v>
       </c>
     </row>
     <row r="9">
@@ -572,7 +572,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.952000000000001</v>
+        <v>6.6314</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-14.4407</v>
+        <v>-14.0056</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -600,13 +600,13 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.187499999999996</v>
+        <v>5.639799999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.0494</v>
+        <v>-13.3249</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.960700000000003</v>
+        <v>-7.915100000000003</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.312300000000004</v>
+        <v>-8.595499999999994</v>
       </c>
     </row>
     <row r="14">
@@ -645,10 +645,10 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.25939999999999</v>
+        <v>-14.41659999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.454800000000001</v>
+        <v>-8.359200000000001</v>
       </c>
     </row>
     <row r="16">
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.9939</v>
+        <v>-14.0948</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.716999999999993</v>
+        <v>6.482699999999997</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.195599999999994</v>
+        <v>-8.145299999999992</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +782,13 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.318899999999996</v>
+        <v>6.040899999999996</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.327999999999999</v>
+        <v>-7.3426</v>
       </c>
     </row>
     <row r="26">
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.8414</v>
+        <v>-12.6253</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.8545</v>
+        <v>-13.4216</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.6234</v>
+        <v>-13.8163</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -883,10 +883,10 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.72260000000001</v>
+        <v>-13.3129</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.545400000000011</v>
+        <v>-9.004300000000001</v>
       </c>
     </row>
     <row r="33">
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.788099999999999</v>
+        <v>-7.880500000000001</v>
       </c>
     </row>
     <row r="37">
@@ -950,10 +950,10 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.867399999999996</v>
+        <v>8.6555</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.9558</v>
+        <v>-12.85019999999999</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.825899999999997</v>
+        <v>-7.917199999999998</v>
       </c>
     </row>
     <row r="39">
@@ -1009,10 +1009,10 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.97850000000001</v>
+        <v>-12.84870000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.068799999999996</v>
+        <v>-8.1251</v>
       </c>
     </row>
     <row r="42">
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.80839999999999</v>
+        <v>-12.4821</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1138,7 +1138,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.149400000000002</v>
+        <v>-8.327499999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.9185</v>
+        <v>-11.8021</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.830300000000002</v>
+        <v>-7.8508</v>
       </c>
     </row>
     <row r="53">
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.867099999999997</v>
+        <v>5.946499999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.428300000000005</v>
+        <v>-8.433299999999997</v>
       </c>
     </row>
     <row r="60">
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.4065</v>
+        <v>-12.3999</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.115299999999995</v>
+        <v>-6.998999999999994</v>
       </c>
     </row>
     <row r="68">
@@ -1384,7 +1384,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.821699999999997</v>
+        <v>4.740699999999995</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.139</v>
+        <v>-11.51990000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>8.735800000000005</v>
+        <v>8.717900000000002</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.134899999999995</v>
+        <v>9.173999999999994</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>8.786900000000006</v>
+        <v>8.991400000000004</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.156199999999997</v>
+        <v>9.284099999999997</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.719800000000006</v>
+        <v>6.093300000000002</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.9107</v>
+        <v>5.779599999999997</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1608,13 +1608,13 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.344399999999997</v>
+        <v>6.6459</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.52839999999999</v>
+        <v>-12.18440000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.220399999999996</v>
+        <v>-8.139199999999997</v>
       </c>
     </row>
     <row r="85">
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-13.835</v>
+        <v>-13.2659</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.5122</v>
+        <v>-8.465099999999998</v>
       </c>
     </row>
     <row r="87">
@@ -1670,7 +1670,7 @@
         <v>-14.32</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.9743</v>
+        <v>-7.835899999999999</v>
       </c>
     </row>
     <row r="89">
@@ -1681,10 +1681,10 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-14.33769999999999</v>
+        <v>-14.1623</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.2928</v>
+        <v>-8.098499999999996</v>
       </c>
     </row>
     <row r="90">
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.1639</v>
+        <v>-10.2265</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,10 +1765,10 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-13.12439999999999</v>
+        <v>-13.21369999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.8376</v>
+        <v>-7.859600000000004</v>
       </c>
     </row>
     <row r="96">
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.97970000000001</v>
+        <v>-13.3251</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.9152</v>
+        <v>-12.2884</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1846,10 +1846,10 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.699900000000001</v>
+        <v>5.595099999999997</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.2093</v>
+        <v>-13.75340000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1860,10 +1860,10 @@
         <v>-20.62</v>
       </c>
       <c r="B102" t="n">
-        <v>7.151299999999999</v>
+        <v>6.946099999999998</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.29830000000001</v>
+        <v>-12.36860000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-9.24</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-7.267599999999995</v>
+        <v>-7.203899999999996</v>
       </c>
     </row>
   </sheetData>
